--- a/Object-Oriented Programming/OOCourse.xlsx
+++ b/Object-Oriented Programming/OOCourse.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3. Михайлов\Develop\PythonTraining\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3. Михайлов\Develop\PythonTraining\PythonTraining\Object-Oriented Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D39A366-0FD3-4FD9-B415-EF5BC3E5351C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60C1115-47F2-47CB-B631-91630C81CAC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10785" xr2:uid="{322C65E7-B1BD-4309-A376-1D5B7C88940C}"/>
   </bookViews>
@@ -514,7 +514,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,11 +835,11 @@
         <v>55</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="3"/>
-        <v>6.875</v>
+        <v>6.1111111111111107</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">

--- a/Object-Oriented Programming/OOCourse.xlsx
+++ b/Object-Oriented Programming/OOCourse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3. Михайлов\Develop\PythonTraining\PythonTraining\Object-Oriented Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60C1115-47F2-47CB-B631-91630C81CAC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE061CA-A6FB-4BC8-9115-02238392A010}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10785" xr2:uid="{322C65E7-B1BD-4309-A376-1D5B7C88940C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Chapter 1</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>Стр/пом</t>
+  </si>
+  <si>
+    <t>Ср кол-во стр в день</t>
+  </si>
+  <si>
+    <t>Оцека кол-ва дней до конца</t>
+  </si>
+  <si>
+    <t>Всего помидор</t>
   </si>
 </sst>
 </file>
@@ -511,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678F2483-BB39-4242-A6CA-6B386A6BC967}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,9 +533,10 @@
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>13</v>
       </c>
@@ -545,16 +555,15 @@
       <c r="I1" t="s">
         <v>18</v>
       </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
       <c r="K1" s="2">
-        <f>AVERAGE(G2:G10)</f>
-        <v>28.777777777777779</v>
-      </c>
-      <c r="L1" s="2">
-        <f>(B15-F10)/K1</f>
-        <v>5.8030888030888033</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <f>AVERAGE(G2:G12)</f>
+        <v>31.454545454545453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,8 +594,15 @@
         <f>G2/H2</f>
         <v>9.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2">
+        <f>(B15-F12)/K1</f>
+        <v>2.4797687861271678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -617,8 +633,15 @@
         <f t="shared" ref="I3" si="2">G3/H3</f>
         <v>7.333333333333333</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <f>SUM(H2:H14)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -650,7 +673,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -682,7 +705,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -714,7 +737,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -746,7 +769,7 @@
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -778,7 +801,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,7 +833,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,7 +865,7 @@
         <v>6.1111111111111107</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -856,15 +879,25 @@
       <c r="D11" s="1">
         <v>10</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="1">
+        <v>282</v>
+      </c>
+      <c r="F11" s="1">
+        <v>335</v>
+      </c>
       <c r="G11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" ref="I11:I12" si="4">G11/H11</f>
+        <v>4.416666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -878,15 +911,25 @@
       <c r="D12" s="1">
         <v>11</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="1">
+        <v>336</v>
+      </c>
+      <c r="F12" s="1">
+        <v>370</v>
+      </c>
       <c r="G12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="4"/>
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -908,7 +951,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -930,7 +973,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>448</v>
       </c>

--- a/Object-Oriented Programming/OOCourse.xlsx
+++ b/Object-Oriented Programming/OOCourse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3. Михайлов\Develop\PythonTraining\PythonTraining\Object-Oriented Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE061CA-A6FB-4BC8-9115-02238392A010}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19417ED-1776-42B5-A116-854DF34EACE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10785" xr2:uid="{322C65E7-B1BD-4309-A376-1D5B7C88940C}"/>
   </bookViews>
@@ -560,7 +560,7 @@
       </c>
       <c r="K1" s="2">
         <f>AVERAGE(G2:G12)</f>
-        <v>31.454545454545453</v>
+        <v>35.636363636363633</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -599,7 +599,7 @@
       </c>
       <c r="K2" s="2">
         <f>(B15-F12)/K1</f>
-        <v>2.4797687861271678</v>
+        <v>0.8979591836734695</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -638,7 +638,7 @@
       </c>
       <c r="K3">
         <f>SUM(H2:H14)</f>
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -915,18 +915,18 @@
         <v>336</v>
       </c>
       <c r="F12" s="1">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="4"/>
-        <v>5.666666666666667</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">

--- a/Object-Oriented Programming/OOCourse.xlsx
+++ b/Object-Oriented Programming/OOCourse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3. Михайлов\Develop\PythonTraining\PythonTraining\Object-Oriented Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19417ED-1776-42B5-A116-854DF34EACE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A227B7-409A-4420-97C6-22B8A5945CFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10785" xr2:uid="{322C65E7-B1BD-4309-A376-1D5B7C88940C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Chapter 1</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Всего помидор</t>
+  </si>
+  <si>
+    <t>Медиана стр/пом</t>
   </si>
 </sst>
 </file>
@@ -522,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678F2483-BB39-4242-A6CA-6B386A6BC967}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,8 +562,8 @@
         <v>19</v>
       </c>
       <c r="K1" s="2">
-        <f>AVERAGE(G2:G12)</f>
-        <v>35.636363636363633</v>
+        <f>AVERAGE(G2:G13)</f>
+        <v>35.25</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -598,8 +601,8 @@
         <v>20</v>
       </c>
       <c r="K2" s="2">
-        <f>(B15-F12)/K1</f>
-        <v>0.8979591836734695</v>
+        <f>(B15-F13)/K1</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -638,7 +641,7 @@
       </c>
       <c r="K3">
         <f>SUM(H2:H14)</f>
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -672,6 +675,13 @@
         <f t="shared" ref="I4:I10" si="3">G4/H4</f>
         <v>2.5</v>
       </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2">
+        <f>MEDIAN(I2:I13)</f>
+        <v>5.5</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -943,13 +953,23 @@
       <c r="D13" s="1">
         <v>12</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="1">
+        <v>417</v>
+      </c>
+      <c r="F13" s="1">
+        <v>448</v>
+      </c>
       <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" ref="I13" si="5">G13/H13</f>
+        <v>7.75</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">

--- a/Object-Oriented Programming/OOCourse.xlsx
+++ b/Object-Oriented Programming/OOCourse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3. Михайлов\Develop\PythonTraining\PythonTraining\Object-Oriented Programming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\PythonProjects\PythonTraining\Object-Oriented Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A227B7-409A-4420-97C6-22B8A5945CFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D07BB6-7021-407D-B1BB-38BE730668DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10785" xr2:uid="{322C65E7-B1BD-4309-A376-1D5B7C88940C}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" xr2:uid="{322C65E7-B1BD-4309-A376-1D5B7C88940C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Chapter 1</t>
   </si>
@@ -66,9 +74,6 @@
     <t>Chapter 13</t>
   </si>
   <si>
-    <t>План</t>
-  </si>
-  <si>
     <t>Факт (нач дня)</t>
   </si>
   <si>
@@ -84,9 +89,6 @@
     <t>Стр/пом</t>
   </si>
   <si>
-    <t>Ср кол-во стр в день</t>
-  </si>
-  <si>
     <t>Оцека кол-ва дней до конца</t>
   </si>
   <si>
@@ -94,6 +96,21 @@
   </si>
   <si>
     <t>Медиана стр/пом</t>
+  </si>
+  <si>
+    <t>Дни</t>
+  </si>
+  <si>
+    <t>План (нач дня</t>
+  </si>
+  <si>
+    <t>План (кон дня)</t>
+  </si>
+  <si>
+    <t>Медиана кол-во стр в день</t>
+  </si>
+  <si>
+    <t>Медиана пом в день</t>
   </si>
 </sst>
 </file>
@@ -148,15 +165,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -523,50 +592,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678F2483-BB39-4242-A6CA-6B386A6BC967}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="2">
-        <f>AVERAGE(G2:G13)</f>
-        <v>35.25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,35 +648,36 @@
         <f>B3-B2</f>
         <v>27</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>15</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>34</v>
       </c>
-      <c r="G2" s="1">
-        <f>F2-E2</f>
+      <c r="H2" s="1">
+        <f>G2-F2</f>
         <v>19</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="I2" s="2">
-        <f>G2/H2</f>
+      <c r="J2" s="2">
+        <f>H2/I2</f>
         <v>9.5</v>
       </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2">
-        <f>(B15-F13)/K1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <f>MEDIAN(H2:H13)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -616,35 +688,36 @@
         <f t="shared" ref="C3:C14" si="0">B4-B3</f>
         <v>33</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>34</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>78</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G14" si="1">F3-E3</f>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H14" si="1">G3-F3</f>
         <v>44</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>6</v>
       </c>
-      <c r="I3" s="2">
-        <f t="shared" ref="I3" si="2">G3/H3</f>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3" si="2">H3/I3</f>
         <v>7.333333333333333</v>
       </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3">
-        <f>SUM(H2:H14)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="3">
+        <f>MEDIAN(I2:I14)</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -655,35 +728,36 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>79</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>84</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="I4" s="2">
-        <f t="shared" ref="I4:I10" si="3">G4/H4</f>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J10" si="3">H4/I4</f>
         <v>2.5</v>
       </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="2">
-        <f>MEDIAN(I2:I13)</f>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2">
+        <f>MEDIAN(J2:J13)</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -694,28 +768,29 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>85</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>106</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <f t="shared" si="3"/>
         <v>5.25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -726,28 +801,36 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>107</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>129</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <f t="shared" si="3"/>
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6">
+        <f>SUM(I2:I14)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -758,28 +841,29 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
         <v>6</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>130</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>159</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>6</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <f t="shared" si="3"/>
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -790,28 +874,29 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>160</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>206</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>8</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <f t="shared" si="3"/>
         <v>5.75</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -822,28 +907,29 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
         <v>8</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>207</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>225</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>4</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,28 +940,29 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
         <v>9</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>226</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>281</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>9</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <f t="shared" si="3"/>
         <v>6.1111111111111107</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -886,28 +973,29 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
         <v>10</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>282</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>335</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>12</v>
       </c>
-      <c r="I11" s="2">
-        <f t="shared" ref="I11:I12" si="4">G11/H11</f>
+      <c r="J11" s="2">
+        <f t="shared" ref="J11:J12" si="4">H11/I11</f>
         <v>4.416666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -918,28 +1006,29 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
         <v>11</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>336</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>416</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>10</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -950,28 +1039,36 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
         <v>12</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>417</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>448</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>4</v>
       </c>
-      <c r="I13" s="2">
-        <f t="shared" ref="I13" si="5">G13/H13</f>
+      <c r="J13" s="2">
+        <f t="shared" ref="J13" si="5">H13/I13</f>
         <v>7.75</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="2">
+        <f>(B15-G13)/L2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -982,24 +1079,25 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
         <v>13</v>
       </c>
-      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>448</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:D14">
+  <conditionalFormatting sqref="A2:C14 E2:E14">
     <cfRule type="expression" dxfId="5" priority="7">
       <formula>MOD(ROW()+1,2)=0</formula>
     </cfRule>
@@ -1007,7 +1105,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F14">
+  <conditionalFormatting sqref="F2:G14">
     <cfRule type="expression" dxfId="3" priority="3">
       <formula>MOD(ROW()+1,2)=0</formula>
     </cfRule>
@@ -1015,7 +1113,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G14">
+  <conditionalFormatting sqref="H2:H14">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW()+1,2)=0</formula>
     </cfRule>
